--- a/HTM Server.xlsx
+++ b/HTM Server.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="30">
   <si>
     <t>blackschols</t>
   </si>
@@ -112,15 +112,18 @@
   <si>
     <t>pico-HTM</t>
   </si>
+  <si>
+    <t>Pico-HTM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -146,8 +149,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,6 +166,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -169,10 +180,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,18 +203,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -214,9 +218,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,59 +292,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -299,13 +302,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,91 +374,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,7 +410,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,19 +458,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,31 +470,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,17 +511,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,24 +546,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -567,11 +555,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,153 +584,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3252,17 +3255,20 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18:O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="4" max="4" width="12.625"/>
     <col min="7" max="7" width="14.625" customWidth="1"/>
     <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="13" max="13" width="14.125" customWidth="1"/>
+    <col min="14" max="14" width="12.625"/>
+    <col min="15" max="15" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -3270,7 +3276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3295,8 +3301,20 @@
       <c r="H2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="L2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3321,8 +3339,20 @@
       <c r="H3">
         <v>1.01921168517025</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1.01921168517025</v>
+      </c>
+      <c r="N3">
+        <v>0.942055780090003</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.95845727617381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3347,8 +3377,20 @@
       <c r="H4">
         <v>1.9441289559302</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="L4">
+        <v>1.92044292517603</v>
+      </c>
+      <c r="M4">
+        <v>1.9441289559302</v>
+      </c>
+      <c r="N4">
+        <v>1.80060265717025</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1.82282307265668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3373,8 +3415,20 @@
       <c r="H5">
         <v>3.43422152560083</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="L5">
+        <v>3.41992715920915</v>
+      </c>
+      <c r="M5">
+        <v>3.43422152560083</v>
+      </c>
+      <c r="N5">
+        <v>3.14141655515198</v>
+      </c>
+      <c r="O5" s="1">
+        <v>3.20326510721247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>8</v>
       </c>
@@ -3399,8 +3453,20 @@
       <c r="H6">
         <v>5.87828653192631</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="L6">
+        <v>5.82876651591735</v>
+      </c>
+      <c r="M6">
+        <v>5.87828653192631</v>
+      </c>
+      <c r="N6">
+        <v>5.25595714057253</v>
+      </c>
+      <c r="O6" s="1">
+        <v>5.30516545601291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>16</v>
       </c>
@@ -3422,8 +3488,17 @@
       <c r="G7" s="1">
         <v>7.99063943593483</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="L7">
+        <v>9.17390090718772</v>
+      </c>
+      <c r="N7">
+        <v>7.92130633887682</v>
+      </c>
+      <c r="O7" s="1">
+        <v>7.99063943593483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>32</v>
       </c>
@@ -3443,6 +3518,15 @@
         <v>4.9020061152957</v>
       </c>
       <c r="G8" s="1">
+        <v>8.45958815958815</v>
+      </c>
+      <c r="L8">
+        <v>9.69197876732528</v>
+      </c>
+      <c r="N8">
+        <v>8.19690734505548</v>
+      </c>
+      <c r="O8" s="1">
         <v>8.45958815958815</v>
       </c>
     </row>
@@ -3451,7 +3535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -3476,8 +3560,20 @@
       <c r="H10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="L10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3502,8 +3598,20 @@
       <c r="H11">
         <v>1.01462348972343</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.01462348972343</v>
+      </c>
+      <c r="N11">
+        <v>1.00138606745528</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1.01393034825871</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>2</v>
       </c>
@@ -3528,8 +3636,20 @@
       <c r="H12">
         <v>1.90523099247932</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="L12">
+        <v>1.87429308735518</v>
+      </c>
+      <c r="M12">
+        <v>1.90523099247932</v>
+      </c>
+      <c r="N12">
+        <v>1.84158282307879</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1.9028149386845</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>4</v>
       </c>
@@ -3554,8 +3674,20 @@
       <c r="H13">
         <v>3.3447481873408</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="L13">
+        <v>3.29018577865595</v>
+      </c>
+      <c r="M13">
+        <v>3.3447481873408</v>
+      </c>
+      <c r="N13">
+        <v>3.08230248306999</v>
+      </c>
+      <c r="O13" s="1">
+        <v>3.32957815167032</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>8</v>
       </c>
@@ -3577,8 +3709,17 @@
       <c r="G14" s="1">
         <v>5.38642998027613</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="L14">
+        <v>5.24108547959928</v>
+      </c>
+      <c r="N14">
+        <v>4.05614306083651</v>
+      </c>
+      <c r="O14" s="1">
+        <v>5.38642998027613</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>16</v>
       </c>
@@ -3600,8 +3741,17 @@
       <c r="G15" s="1">
         <v>6.53205128205128</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="L15">
+        <v>7.97674962028274</v>
+      </c>
+      <c r="N15">
+        <v>3.43304671393372</v>
+      </c>
+      <c r="O15" s="1">
+        <v>6.53205128205128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>32</v>
       </c>
@@ -3621,6 +3771,15 @@
         <v>1.17887884517427</v>
       </c>
       <c r="G16" s="1">
+        <v>6.06871111111111</v>
+      </c>
+      <c r="L16">
+        <v>8.2895823215153</v>
+      </c>
+      <c r="N16">
+        <v>1.90122528543581</v>
+      </c>
+      <c r="O16" s="1">
         <v>6.06871111111111</v>
       </c>
     </row>
@@ -3629,7 +3788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -3654,8 +3813,20 @@
       <c r="H18" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="L18" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N18" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>1</v>
       </c>
@@ -3680,8 +3851,20 @@
       <c r="H19">
         <v>1.00058375704653</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.00058375704653</v>
+      </c>
+      <c r="N19">
+        <v>0.955395337025108</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0.972775203170125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>2</v>
       </c>
@@ -3706,8 +3889,20 @@
       <c r="H20">
         <v>1.76664349141296</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="L20">
+        <v>1.80007208416448</v>
+      </c>
+      <c r="M20">
+        <v>1.76664349141296</v>
+      </c>
+      <c r="N20">
+        <v>1.64274250715967</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1.72980413233011</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>4</v>
       </c>
@@ -3732,8 +3927,20 @@
       <c r="H21">
         <v>2.89904923939152</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="L21">
+        <v>2.87965365383277</v>
+      </c>
+      <c r="M21">
+        <v>2.89904923939152</v>
+      </c>
+      <c r="N21">
+        <v>2.50827365850702</v>
+      </c>
+      <c r="O21" s="1">
+        <v>2.78665704665704</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>8</v>
       </c>
@@ -3758,8 +3965,20 @@
       <c r="H22">
         <v>4.23405685887597</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="L22">
+        <v>4.25164386778607</v>
+      </c>
+      <c r="M22">
+        <v>4.23405685887597</v>
+      </c>
+      <c r="N22">
+        <v>3.31737288135594</v>
+      </c>
+      <c r="O22" s="1">
+        <v>4.00654218533886</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23">
         <v>16</v>
       </c>
@@ -3781,8 +4000,17 @@
       <c r="G23" s="1">
         <v>5.11780710588152</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="L23">
+        <v>5.96378572016802</v>
+      </c>
+      <c r="N23">
+        <v>3.52288813757206</v>
+      </c>
+      <c r="O23" s="1">
+        <v>5.11780710588152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24">
         <v>32</v>
       </c>
@@ -3802,6 +4030,15 @@
         <v>0.914894557812392</v>
       </c>
       <c r="G24" s="1">
+        <v>5.00039703089936</v>
+      </c>
+      <c r="L24">
+        <v>5.92208774583966</v>
+      </c>
+      <c r="N24">
+        <v>1.99768971890431</v>
+      </c>
+      <c r="O24" s="1">
         <v>5.00039703089936</v>
       </c>
     </row>
@@ -3810,7 +4047,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -3835,8 +4072,20 @@
       <c r="H26" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="L26" t="s">
+        <v>11</v>
+      </c>
+      <c r="M26" t="s">
+        <v>28</v>
+      </c>
+      <c r="N26" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27">
         <v>1</v>
       </c>
@@ -3861,8 +4110,20 @@
       <c r="H27">
         <v>1.00279396103489</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.00279396103489</v>
+      </c>
+      <c r="N27">
+        <v>1.07007397444519</v>
+      </c>
+      <c r="O27" s="1">
+        <v>1.00721610330422</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28">
         <v>2</v>
       </c>
@@ -3887,8 +4148,20 @@
       <c r="H28">
         <v>1.82140500193433</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="L28">
+        <v>1.78185890257559</v>
+      </c>
+      <c r="M28">
+        <v>1.82140500193433</v>
+      </c>
+      <c r="N28">
+        <v>1.14593535749266</v>
+      </c>
+      <c r="O28" s="1">
+        <v>1.73220117570216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29">
         <v>4</v>
       </c>
@@ -3913,8 +4186,20 @@
       <c r="H29">
         <v>2.98861132892722</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="L29">
+        <v>3.06790575714341</v>
+      </c>
+      <c r="M29">
+        <v>2.98861132892722</v>
+      </c>
+      <c r="N29">
+        <v>0.486281317042461</v>
+      </c>
+      <c r="O29" s="1">
+        <v>2.84244372990354</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30">
         <v>8</v>
       </c>
@@ -3936,8 +4221,17 @@
       <c r="G30" s="1">
         <v>3.4621409921671</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="L30">
+        <v>4.63933757070383</v>
+      </c>
+      <c r="N30">
+        <v>0.101430170503658</v>
+      </c>
+      <c r="O30" s="1">
+        <v>3.4621409921671</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31">
         <v>16</v>
       </c>
@@ -3959,8 +4253,17 @@
       <c r="G31" s="1">
         <v>1.84166666666667</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="L31">
+        <v>6.72698063752431</v>
+      </c>
+      <c r="N31">
+        <v>0.0180821798254147</v>
+      </c>
+      <c r="O31" s="1">
+        <v>1.84166666666667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32">
         <v>32</v>
       </c>
@@ -3980,6 +4283,15 @@
         <v>0.00266703335581785</v>
       </c>
       <c r="G32" s="1">
+        <v>0.333962976955043</v>
+      </c>
+      <c r="L32">
+        <v>6.29829005699811</v>
+      </c>
+      <c r="N32">
+        <v>0.0052826766517843</v>
+      </c>
+      <c r="O32" s="1">
         <v>0.333962976955043</v>
       </c>
     </row>
@@ -3988,7 +4300,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -4013,8 +4325,20 @@
       <c r="H34" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="L34" t="s">
+        <v>11</v>
+      </c>
+      <c r="M34" t="s">
+        <v>28</v>
+      </c>
+      <c r="N34" t="s">
+        <v>5</v>
+      </c>
+      <c r="O34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35">
         <v>1</v>
       </c>
@@ -4039,8 +4363,20 @@
       <c r="H35" s="2">
         <v>0.882478200354504</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0.882478200354504</v>
+      </c>
+      <c r="N35">
+        <v>0.507539682539682</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0.707708452585383</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36">
         <v>2</v>
       </c>
@@ -4065,8 +4401,20 @@
       <c r="H36" s="2">
         <v>1.48085599073742</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="L36">
+        <v>1.66588816528183</v>
+      </c>
+      <c r="M36" s="2">
+        <v>1.48085599073742</v>
+      </c>
+      <c r="N36">
+        <v>0.680256762952773</v>
+      </c>
+      <c r="O36" s="1">
+        <v>1.20916055419723</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37">
         <v>4</v>
       </c>
@@ -4091,8 +4439,20 @@
       <c r="H37" s="2">
         <v>2.08851600551818</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="L37">
+        <v>2.78481868008108</v>
+      </c>
+      <c r="M37" s="2">
+        <v>2.08851600551818</v>
+      </c>
+      <c r="N37">
+        <v>0.794129296778821</v>
+      </c>
+      <c r="O37" s="1">
+        <v>1.72076084435166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38">
         <v>8</v>
       </c>
@@ -4117,8 +4477,20 @@
       <c r="H38" s="2">
         <v>2.7505376344086</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="L38">
+        <v>4.11390860692103</v>
+      </c>
+      <c r="M38" s="2">
+        <v>2.7505376344086</v>
+      </c>
+      <c r="N38">
+        <v>0.827222445247334</v>
+      </c>
+      <c r="O38" s="1">
+        <v>2.22168313866427</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39">
         <v>16</v>
       </c>
@@ -4141,8 +4513,18 @@
         <v>1.89947252522149</v>
       </c>
       <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="L39">
+        <v>3.4809253437192</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39">
+        <v>0.846488275232499</v>
+      </c>
+      <c r="O39" s="1">
+        <v>1.89947252522149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40">
         <v>32</v>
       </c>
@@ -4165,13 +4547,23 @@
         <v>1.93787878787879</v>
       </c>
       <c r="H40" s="2"/>
+      <c r="L40">
+        <v>3.26390355508623</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40">
+        <v>0.816101564390855</v>
+      </c>
+      <c r="O40" s="1">
+        <v>1.93787878787879</v>
+      </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -4196,8 +4588,20 @@
       <c r="H42" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="L42" t="s">
+        <v>11</v>
+      </c>
+      <c r="M42" t="s">
+        <v>28</v>
+      </c>
+      <c r="N42" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43">
         <v>1</v>
       </c>
@@ -4222,8 +4626,20 @@
       <c r="H43">
         <v>1.01101951963325</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>1.01101951963325</v>
+      </c>
+      <c r="N43">
+        <v>1.01566899253275</v>
+      </c>
+      <c r="O43" s="1">
+        <v>1.01840830679405</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44">
         <v>2</v>
       </c>
@@ -4248,8 +4664,20 @@
       <c r="H44">
         <v>2.01561997308032</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="L44">
+        <v>1.99001069588045</v>
+      </c>
+      <c r="M44">
+        <v>2.01561997308032</v>
+      </c>
+      <c r="N44">
+        <v>1.67096124537338</v>
+      </c>
+      <c r="O44" s="1">
+        <v>2.02914270606119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45">
         <v>4</v>
       </c>
@@ -4274,8 +4702,20 @@
       <c r="H45">
         <v>3.8247408551779</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="L45">
+        <v>3.73870735954986</v>
+      </c>
+      <c r="M45">
+        <v>3.8247408551779</v>
+      </c>
+      <c r="N45">
+        <v>1.72650019683931</v>
+      </c>
+      <c r="O45" s="1">
+        <v>3.87465606462196</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46">
         <v>8</v>
       </c>
@@ -4300,8 +4740,20 @@
       <c r="H46">
         <v>7.36414229855829</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="L46">
+        <v>7.18136521006828</v>
+      </c>
+      <c r="M46">
+        <v>7.36414229855829</v>
+      </c>
+      <c r="N46">
+        <v>1.05014897598253</v>
+      </c>
+      <c r="O46" s="1">
+        <v>7.34599186408227</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47">
         <v>16</v>
       </c>
@@ -4323,8 +4775,17 @@
       <c r="G47" s="1">
         <v>13.8189961737564</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="L47">
+        <v>13.4161786557118</v>
+      </c>
+      <c r="N47">
+        <v>0.243086437349549</v>
+      </c>
+      <c r="O47" s="1">
+        <v>13.8189961737564</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48">
         <v>32</v>
       </c>
@@ -4344,6 +4805,15 @@
         <v>0.0565779264460601</v>
       </c>
       <c r="G48" s="1">
+        <v>15.5990345528454</v>
+      </c>
+      <c r="L48">
+        <v>15.2042494180575</v>
+      </c>
+      <c r="N48">
+        <v>0.112167094768149</v>
+      </c>
+      <c r="O48" s="1">
         <v>15.5990345528454</v>
       </c>
     </row>
@@ -4352,7 +4822,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:15">
       <c r="A50" t="s">
         <v>1</v>
       </c>
@@ -4377,8 +4847,20 @@
       <c r="H50" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="L50" t="s">
+        <v>11</v>
+      </c>
+      <c r="M50" t="s">
+        <v>28</v>
+      </c>
+      <c r="N50" t="s">
+        <v>5</v>
+      </c>
+      <c r="O50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51">
         <v>1</v>
       </c>
@@ -4403,8 +4885,20 @@
       <c r="H51">
         <v>1.00366790826233</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>1.00366790826233</v>
+      </c>
+      <c r="N51">
+        <v>0.967227394946779</v>
+      </c>
+      <c r="O51" s="1">
+        <v>0.878820061379422</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52">
         <v>2</v>
       </c>
@@ -4429,8 +4923,20 @@
       <c r="H52">
         <v>1.92338488731772</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="L52">
+        <v>1.91568152810176</v>
+      </c>
+      <c r="M52">
+        <v>1.92338488731772</v>
+      </c>
+      <c r="N52">
+        <v>1.86257745369895</v>
+      </c>
+      <c r="O52" s="1">
+        <v>1.68432009906354</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53">
         <v>4</v>
       </c>
@@ -4455,8 +4961,20 @@
       <c r="H53">
         <v>3.61697542491192</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="L53">
+        <v>3.62050551205555</v>
+      </c>
+      <c r="M53">
+        <v>3.61697542491192</v>
+      </c>
+      <c r="N53">
+        <v>3.3506607477355</v>
+      </c>
+      <c r="O53" s="1">
+        <v>3.18360152135752</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54">
         <v>8</v>
       </c>
@@ -4481,8 +4999,20 @@
       <c r="H54">
         <v>5.90452633958852</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="L54">
+        <v>5.92155600097954</v>
+      </c>
+      <c r="M54">
+        <v>5.90452633958852</v>
+      </c>
+      <c r="N54">
+        <v>5.37789840448754</v>
+      </c>
+      <c r="O54" s="1">
+        <v>5.09793862731319</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55">
         <v>16</v>
       </c>
@@ -4504,8 +5034,17 @@
       <c r="G55" s="1">
         <v>5.35377613776138</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="L55">
+        <v>6.05270330403829</v>
+      </c>
+      <c r="N55">
+        <v>5.53608798141334</v>
+      </c>
+      <c r="O55" s="1">
+        <v>5.35377613776138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56">
         <v>32</v>
       </c>
@@ -4525,6 +5064,15 @@
         <v>2.02950885918558</v>
       </c>
       <c r="G56" s="1">
+        <v>5.77270557029178</v>
+      </c>
+      <c r="L56">
+        <v>6.55534805265219</v>
+      </c>
+      <c r="N56">
+        <v>5.91946217451223</v>
+      </c>
+      <c r="O56" s="1">
         <v>5.77270557029178</v>
       </c>
     </row>
@@ -4533,7 +5081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:15">
       <c r="A58" t="s">
         <v>1</v>
       </c>
@@ -4558,8 +5106,20 @@
       <c r="H58" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="L58" t="s">
+        <v>11</v>
+      </c>
+      <c r="M58" t="s">
+        <v>28</v>
+      </c>
+      <c r="N58" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59">
         <v>1</v>
       </c>
@@ -4591,161 +5151,249 @@
         <f t="shared" si="0"/>
         <v>0.98955775600936</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="L59">
+        <f t="shared" ref="L59:L64" si="1">GEOMEAN(L3,L11,L19,L27,L35,L43,L51)</f>
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <f>GEOMEAN(M3,M11,M19,M27,M35,M43,M51)</f>
+        <v>0.98955775600936</v>
+      </c>
+      <c r="N59">
+        <f t="shared" ref="N59:N64" si="2">GEOMEAN(N3,N11,N19,N27,N35,N43,N51)</f>
+        <v>0.900689550158169</v>
+      </c>
+      <c r="O59">
+        <f>GEOMEAN(O3,O11,O19,O27,O35,O43,O51)</f>
+        <v>0.930309536785399</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60">
         <v>2</v>
       </c>
       <c r="B60">
-        <f t="shared" ref="B60:H60" si="1">GEOMEAN(B4,B12,B20,B28,B36,B44,B52)</f>
+        <f t="shared" ref="B60:H60" si="3">GEOMEAN(B4,B12,B20,B28,B36,B44,B52)</f>
         <v>1.84697473397818</v>
       </c>
       <c r="C60">
+        <f t="shared" si="3"/>
+        <v>1.7979023387013</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="3"/>
+        <v>1.44595923430719</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="3"/>
+        <v>0.828796351641937</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="3"/>
+        <v>1.27031480302279</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="3"/>
+        <v>1.71111676348973</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="3"/>
+        <v>1.82883148429367</v>
+      </c>
+      <c r="L60">
         <f t="shared" si="1"/>
-        <v>1.7979023387013</v>
-      </c>
-      <c r="D60">
-        <f t="shared" si="1"/>
+        <v>1.84697473397818</v>
+      </c>
+      <c r="M60">
+        <f>GEOMEAN(M4,M12,M20,M28,M36,M44,M52)</f>
+        <v>1.82883148429367</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="2"/>
         <v>1.44595923430719</v>
       </c>
-      <c r="E60">
-        <f t="shared" si="1"/>
-        <v>0.828796351641937</v>
-      </c>
-      <c r="F60">
-        <f t="shared" si="1"/>
-        <v>1.27031480302279</v>
-      </c>
-      <c r="G60">
-        <f t="shared" si="1"/>
+      <c r="O60">
+        <f>GEOMEAN(O4,O12,O20,O28,O36,O44,O52)</f>
         <v>1.71111676348973</v>
       </c>
-      <c r="H60">
-        <f t="shared" si="1"/>
-        <v>1.82883148429367</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61">
         <v>4</v>
       </c>
       <c r="B61">
-        <f t="shared" ref="B61:H61" si="2">GEOMEAN(B5,B13,B21,B29,B37,B45,B53)</f>
+        <f t="shared" ref="B61:H61" si="4">GEOMEAN(B5,B13,B21,B29,B37,B45,B53)</f>
         <v>3.23988499084287</v>
       </c>
       <c r="C61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.02275433334355</v>
       </c>
       <c r="D61">
+        <f t="shared" si="4"/>
+        <v>1.76920761169518</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="4"/>
+        <v>0.913574541373844</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="4"/>
+        <v>1.43764290519892</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="4"/>
+        <v>2.91611245298165</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="4"/>
+        <v>3.11961001779707</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="1"/>
+        <v>3.23988499084287</v>
+      </c>
+      <c r="M61">
+        <f>GEOMEAN(M5,M13,M21,M29,M37,M45,M53)</f>
+        <v>3.11961001779707</v>
+      </c>
+      <c r="N61">
         <f t="shared" si="2"/>
         <v>1.76920761169518</v>
       </c>
-      <c r="E61">
-        <f t="shared" si="2"/>
-        <v>0.913574541373844</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="2"/>
-        <v>1.43764290519892</v>
-      </c>
-      <c r="G61">
-        <f t="shared" si="2"/>
+      <c r="O61">
+        <f>GEOMEAN(O5,O13,O21,O29,O37,O45,O53)</f>
         <v>2.91611245298165</v>
       </c>
-      <c r="H61">
-        <f t="shared" si="2"/>
-        <v>3.11961001779707</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62">
         <v>8</v>
       </c>
       <c r="B62">
-        <f t="shared" ref="B62:H62" si="3">GEOMEAN(B6,B14,B22,B30,B38,B46,B54)</f>
+        <f t="shared" ref="B62:H62" si="5">GEOMEAN(B6,B14,B22,B30,B38,B46,B54)</f>
         <v>5.2186518066944</v>
       </c>
       <c r="C62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.41783124581256</v>
       </c>
       <c r="D62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.6515338420155</v>
       </c>
       <c r="E62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.853197473316698</v>
       </c>
       <c r="F62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.26042353526035</v>
       </c>
       <c r="G62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.42041540551467</v>
       </c>
       <c r="H62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.95161024721805</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="L62">
+        <f t="shared" si="1"/>
+        <v>5.2186518066944</v>
+      </c>
+      <c r="M62">
+        <f>GEOMEAN(M6,M14,M22,M30,M38,M46,M54)</f>
+        <v>4.95161024721805</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="2"/>
+        <v>1.6515338420155</v>
+      </c>
+      <c r="O62">
+        <f>GEOMEAN(O6,O14,O22,O30,O38,O46,O54)</f>
+        <v>4.42041540551467</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63">
         <v>16</v>
       </c>
       <c r="B63">
-        <f t="shared" ref="B63:G63" si="4">GEOMEAN(B7,B15,B23,B31,B39,B47,B55)</f>
+        <f t="shared" ref="B63:G63" si="6">GEOMEAN(B7,B15,B23,B31,B39,B47,B55)</f>
         <v>7.00762308208935</v>
       </c>
       <c r="C63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.29133802008146</v>
       </c>
       <c r="D63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.10197812621892</v>
       </c>
       <c r="E63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.540900094217667</v>
       </c>
       <c r="F63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.559439398312703</v>
       </c>
       <c r="G63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.91343382829378</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="L63">
+        <f t="shared" si="1"/>
+        <v>7.00762308208935</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="2"/>
+        <v>1.10197812621892</v>
+      </c>
+      <c r="O63">
+        <f>GEOMEAN(O7,O15,O23,O31,O39,O47,O55)</f>
+        <v>4.91343382829378</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64">
         <v>32</v>
       </c>
       <c r="B64">
-        <f t="shared" ref="B64:G64" si="5">GEOMEAN(B8,B16,B24,B32,B40,B48,B56)</f>
+        <f t="shared" ref="B64:G64" si="7">GEOMEAN(B8,B16,B24,B32,B40,B48,B56)</f>
         <v>7.17072307498677</v>
       </c>
       <c r="C64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.14099596825376</v>
       </c>
       <c r="D64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.707935911209685</v>
       </c>
       <c r="E64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.356072945161811</v>
       </c>
       <c r="F64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.346166325504062</v>
       </c>
       <c r="G64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>3.9484054952359</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="1"/>
+        <v>7.17072307498677</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="2"/>
+        <v>0.707935911209685</v>
+      </c>
+      <c r="O64">
+        <f>GEOMEAN(O8,O16,O24,O32,O40,O48,O56)</f>
         <v>3.9484054952359</v>
       </c>
     </row>
